--- a/Laboratory-3/tiempos media, desviacion y CV.xlsx
+++ b/Laboratory-3/tiempos media, desviacion y CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FX506\Desktop\Estudios\Master\github\pacs_labs\PACS_labs\Laboratory-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB8287-BB15-44A2-8572-06BBFB49D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED57803E-439E-4C04-8CB5-0D270ED0AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D57953F-EEA6-4886-867F-DAC3C2515231}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>tiempos</t>
   </si>
@@ -52,13 +52,24 @@
   <si>
     <t>CV</t>
   </si>
+  <si>
+    <t>incremento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +100,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B213B06A-A167-4779-91CF-8E65BE7D9D9A}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,11 +636,11 @@
         <v>7.5498344352707498</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:F6" si="5">_xlfn.STDEV.S(C2:C4)</f>
+        <f>_xlfn.STDEV.S(C2:C4)</f>
         <v>330.83530645927135</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C6:F6" si="5">_xlfn.STDEV.S(D2:D4)</f>
         <v>469.39002971942216</v>
       </c>
       <c r="E6">
@@ -712,8 +723,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <f>100*C5/B5</f>
+        <v>51.154077000623509</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:F9" si="12">100*D5/C5</f>
+        <v>50.518881357862959</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="12"/>
+        <v>50.031192688133245</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="12"/>
+        <v>50.182156887783854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
